--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -1541,7 +1541,7 @@
         <v>78</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>122</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
   </si>
   <si>
     <t>numeroatto</t>
+  </si>
+  <si>
+    <t>obbligatoria</t>
   </si>
   <si>
     <t>Data formazione</t>
@@ -439,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G61"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -451,6 +457,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -472,45 +479,54 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -532,1145 +548,1595 @@
       <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>79</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="C66" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>9</v>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>
@@ -445,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H73"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -457,7 +457,7 @@
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="24.609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="28.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1704,19 +1704,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1727,19 +1727,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1750,19 +1750,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1773,19 +1773,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1796,19 +1796,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1819,19 +1819,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1842,300 +1842,24 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G73" s="2" t="s">
         <v>17</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="126">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,25 +32,28 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Esito accertamento di cittadinanza</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Esito accertamento di cittadinanza</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>193</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -549,1318 +552,1318 @@
         <v>5</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -1345,7 +1345,7 @@
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>82</v>
@@ -1368,7 +1368,7 @@
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>82</v>
@@ -1391,7 +1391,7 @@
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>82</v>
@@ -1414,7 +1414,7 @@
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>82</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -1621,7 +1621,7 @@
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>102</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
   <si>
     <t>Sezione</t>
   </si>
@@ -182,6 +182,12 @@
     <t>nomeComuneNascita</t>
   </si>
   <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
+  </si>
+  <si>
     <t>Nazionalità</t>
   </si>
   <si>
@@ -314,6 +320,9 @@
     <t>nomeComuneEnte</t>
   </si>
   <si>
+    <t>comuneEstero</t>
+  </si>
+  <si>
     <t>Atto collegato</t>
   </si>
   <si>
@@ -368,22 +377,22 @@
     <t>Data atto</t>
   </si>
   <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
     <t>Tipo registro</t>
   </si>
   <si>
     <t>tipologia</t>
-  </si>
-  <si>
-    <t>Parte</t>
-  </si>
-  <si>
-    <t>parte</t>
-  </si>
-  <si>
-    <t>Serie</t>
-  </si>
-  <si>
-    <t>serie</t>
   </si>
   <si>
     <t>Autorità mittente</t>
@@ -448,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H61"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -954,7 +963,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>34</v>
@@ -1046,7 +1055,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1161,7 +1170,7 @@
         <v>74</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>34</v>
@@ -1224,19 +1233,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="C34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
@@ -1247,16 +1256,16 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>85</v>
@@ -1270,7 +1279,7 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>86</v>
@@ -1279,7 +1288,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>87</v>
@@ -1293,7 +1302,7 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>88</v>
@@ -1302,7 +1311,7 @@
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>89</v>
@@ -1316,7 +1325,7 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>90</v>
@@ -1325,7 +1334,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>91</v>
@@ -1339,16 +1348,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1362,7 +1371,7 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
@@ -1371,7 +1380,7 @@
         <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1385,7 +1394,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1394,7 +1403,7 @@
         <v>33</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1408,7 +1417,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1417,7 +1426,7 @@
         <v>33</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1431,19 +1440,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1454,19 +1463,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1477,19 +1486,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1500,19 +1509,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>109</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1523,19 +1532,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1546,19 +1555,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1569,19 +1578,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1592,7 +1601,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>115</v>
@@ -1601,7 +1610,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>116</v>
@@ -1615,19 +1624,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1638,7 +1647,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
@@ -1647,7 +1656,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>119</v>
@@ -1661,7 +1670,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>120</v>
@@ -1670,10 +1679,10 @@
         <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1684,19 +1693,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1707,19 +1716,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1730,19 +1739,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1753,19 +1762,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1776,19 +1785,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1799,19 +1808,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1822,19 +1831,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1845,24 +1854,70 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B61" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E61" s="2" t="s">
+      <c r="C62" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -1469,7 +1469,7 @@
         <v>56</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>84</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="137">
   <si>
     <t>Sezione</t>
   </si>
@@ -240,6 +240,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -457,7 +481,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1193,7 +1217,7 @@
         <v>76</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>34</v>
@@ -1216,7 +1240,7 @@
         <v>78</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>34</v>
@@ -1239,7 +1263,7 @@
         <v>80</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>34</v>
@@ -1256,19 +1280,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>83</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>10</v>
@@ -1279,19 +1303,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
@@ -1302,19 +1326,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1325,19 +1349,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>82</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1348,16 +1372,16 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>93</v>
@@ -1371,16 +1395,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1394,16 +1418,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1417,16 +1441,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1440,16 +1464,16 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1463,19 +1487,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1486,7 +1510,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1495,10 +1519,10 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1509,19 +1533,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1532,19 +1556,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1555,19 +1579,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>111</v>
+        <v>56</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1578,16 +1602,16 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>114</v>
@@ -1601,7 +1625,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>115</v>
@@ -1610,7 +1634,7 @@
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>116</v>
@@ -1624,7 +1648,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
@@ -1633,10 +1657,10 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1647,19 +1671,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1670,19 +1694,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>20</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1693,19 +1717,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1716,19 +1740,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>124</v>
+        <v>17</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1739,19 +1763,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1762,19 +1786,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1785,19 +1809,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>129</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1808,19 +1832,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>88</v>
+        <v>131</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1831,19 +1855,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1854,19 +1878,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1877,19 +1901,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1900,24 +1924,116 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="139">
   <si>
     <t>Sezione</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>codiceFiscale</t>
+  </si>
+  <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
   </si>
   <si>
     <t>Sesso</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -803,7 +809,7 @@
         <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>34</v>
@@ -895,7 +901,7 @@
         <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
@@ -1010,7 +1016,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>34</v>
@@ -1102,7 +1108,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1309,7 +1315,7 @@
         <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>34</v>
@@ -1372,19 +1378,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1395,16 +1401,16 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>95</v>
@@ -1418,7 +1424,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>96</v>
@@ -1427,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1441,7 +1447,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1450,7 +1456,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1464,7 +1470,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1473,7 +1479,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1487,16 +1493,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1510,7 +1516,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1519,7 +1525,7 @@
         <v>33</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1533,7 +1539,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1542,7 +1548,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1556,7 +1562,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1565,7 +1571,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1579,19 +1585,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1602,19 +1608,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>92</v>
       </c>
       <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1625,16 +1631,16 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>116</v>
@@ -1648,7 +1654,7 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>117</v>
@@ -1657,7 +1663,7 @@
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>118</v>
@@ -1671,7 +1677,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>119</v>
@@ -1680,7 +1686,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>120</v>
@@ -1694,7 +1700,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>121</v>
@@ -1703,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>122</v>
@@ -1717,7 +1723,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>123</v>
@@ -1726,7 +1732,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1749,10 +1755,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1763,19 +1769,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1786,19 +1792,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>20</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1809,19 +1815,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>130</v>
+        <v>20</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1832,7 +1838,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>131</v>
@@ -1841,7 +1847,7 @@
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>132</v>
@@ -1855,16 +1861,16 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>134</v>
@@ -1878,19 +1884,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1901,16 +1907,16 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>95</v>
@@ -1924,7 +1930,7 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>96</v>
@@ -1933,7 +1939,7 @@
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>97</v>
@@ -1947,19 +1953,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1970,16 +1976,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>105</v>
@@ -1993,16 +1999,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>107</v>
@@ -2016,16 +2022,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>109</v>
@@ -2034,6 +2040,29 @@
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
   <si>
     <t>Sezione</t>
   </si>
@@ -204,6 +204,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H68"/>
+  <dimension ref="A1:H69"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1085,7 +1091,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1108,7 +1114,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1338,7 +1344,7 @@
         <v>86</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>34</v>
@@ -1401,19 +1407,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1424,16 +1430,16 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>97</v>
@@ -1447,7 +1453,7 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>98</v>
@@ -1456,7 +1462,7 @@
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1470,7 +1476,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1479,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1502,7 +1508,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1516,16 +1522,16 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1539,7 +1545,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1548,7 +1554,7 @@
         <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1562,7 +1568,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1571,7 +1577,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1585,7 +1591,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1594,7 +1600,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1608,19 +1614,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1631,19 +1637,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1654,16 +1660,16 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>118</v>
@@ -1677,7 +1683,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>119</v>
@@ -1686,7 +1692,7 @@
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>120</v>
@@ -1700,7 +1706,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>121</v>
@@ -1709,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>122</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>123</v>
@@ -1732,7 +1738,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1755,7 +1761,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1769,7 +1775,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1778,10 +1784,10 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1792,19 +1798,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>129</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1815,19 +1821,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>20</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1838,19 +1844,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1861,7 +1867,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>133</v>
@@ -1870,7 +1876,7 @@
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>134</v>
@@ -1884,16 +1890,16 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>136</v>
@@ -1907,19 +1913,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1930,16 +1936,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>97</v>
@@ -1953,7 +1959,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>98</v>
@@ -1962,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>99</v>
@@ -1976,19 +1982,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1999,16 +2005,16 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>107</v>
@@ -2022,16 +2028,16 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>109</v>
@@ -2045,16 +2051,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>111</v>
@@ -2063,6 +2069,29 @@
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -423,6 +423,12 @@
   </si>
   <si>
     <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
   </si>
   <si>
     <t>Tipo registro</t>
@@ -493,7 +499,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1919,7 +1925,7 @@
         <v>137</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>117</v>
@@ -1936,19 +1942,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1959,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1982,19 +1988,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -2005,19 +2011,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2028,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2051,19 +2057,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2074,24 +2080,47 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E69" s="2" t="s">
+      <c r="C70" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F69" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G69" s="2" t="s">
+      <c r="F70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="145">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,6 +276,12 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
+  </si>
+  <si>
+    <t>Residenza al momento dell'evento originario</t>
+  </si>
+  <si>
+    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -499,14 +505,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1373,7 +1379,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1436,19 +1442,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1459,16 +1465,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1491,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1505,7 +1511,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1514,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1528,7 +1534,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1537,7 +1543,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1551,16 +1557,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1574,7 +1580,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1583,7 +1589,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1597,7 +1603,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1606,7 +1612,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1620,7 +1626,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1629,7 +1635,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1672,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1689,16 +1695,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>120</v>
@@ -1712,7 +1718,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>121</v>
@@ -1721,7 +1727,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>122</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>123</v>
@@ -1744,7 +1750,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1767,7 +1773,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1790,7 +1796,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1813,10 +1819,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>134</v>
+        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1896,7 +1902,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>135</v>
@@ -1905,7 +1911,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>136</v>
@@ -1919,7 +1925,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>137</v>
@@ -1928,7 +1934,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>138</v>
@@ -1942,16 +1948,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>140</v>
@@ -1965,19 +1971,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1988,16 +1994,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>99</v>
@@ -2011,7 +2017,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>100</v>
@@ -2020,7 +2026,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>101</v>
@@ -2034,19 +2040,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2057,16 +2063,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>109</v>
@@ -2080,16 +2086,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>111</v>
@@ -2103,16 +2109,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>113</v>
@@ -2121,6 +2127,29 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="143">
   <si>
     <t>Sezione</t>
   </si>
@@ -276,12 +276,6 @@
   </si>
   <si>
     <t>nomeComuneAIRE</t>
-  </si>
-  <si>
-    <t>Residenza al momento dell'evento originario</t>
-  </si>
-  <si>
-    <t>residenzaOriginaria</t>
   </si>
   <si>
     <t>flag dichiarante</t>
@@ -505,14 +499,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="17.65234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="40.984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="33.30859375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="45.0546875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="25.734375" customWidth="true" bestFit="true"/>
@@ -1379,7 +1373,7 @@
         <v>88</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1442,19 +1436,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1465,16 +1459,16 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>99</v>
@@ -1488,7 +1482,7 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>100</v>
@@ -1497,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>101</v>
@@ -1511,7 +1505,7 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>102</v>
@@ -1520,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1534,7 +1528,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1543,7 +1537,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1557,16 +1551,16 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1580,7 +1574,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
@@ -1589,7 +1583,7 @@
         <v>33</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1603,7 +1597,7 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
@@ -1612,7 +1606,7 @@
         <v>33</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1626,7 +1620,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1635,7 +1629,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1649,19 +1643,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="E50" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1672,19 +1666,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,16 +1689,16 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>120</v>
@@ -1718,7 +1712,7 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>121</v>
@@ -1727,7 +1721,7 @@
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>122</v>
@@ -1741,7 +1735,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>123</v>
@@ -1750,7 +1744,7 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1764,7 +1758,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>125</v>
@@ -1773,7 +1767,7 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>126</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>127</v>
@@ -1796,7 +1790,7 @@
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -1810,7 +1804,7 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>129</v>
@@ -1819,10 +1813,10 @@
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>17</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1833,19 +1827,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="E58" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1856,19 +1850,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>20</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1879,19 +1873,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="E60" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1902,7 +1896,7 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>135</v>
@@ -1911,7 +1905,7 @@
         <v>33</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>136</v>
@@ -1925,7 +1919,7 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>137</v>
@@ -1934,7 +1928,7 @@
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>138</v>
@@ -1948,16 +1942,16 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>140</v>
@@ -1971,19 +1965,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1994,16 +1988,16 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>99</v>
@@ -2017,7 +2011,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>100</v>
@@ -2026,7 +2020,7 @@
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>101</v>
@@ -2040,19 +2034,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2063,16 +2057,16 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>109</v>
@@ -2086,16 +2080,16 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>111</v>
@@ -2109,16 +2103,16 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>113</v>
@@ -2127,29 +2121,6 @@
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G71" s="2" t="s">
         <v>18</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_012.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="150">
   <si>
     <t>Sezione</t>
   </si>
@@ -146,6 +146,18 @@
     <t>sesso</t>
   </si>
   <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
+  </si>
+  <si>
     <t>Data nascita</t>
   </si>
   <si>
@@ -375,6 +387,9 @@
   </si>
   <si>
     <t>idAnsc</t>
+  </si>
+  <si>
+    <t>opzionale</t>
   </si>
   <si>
     <t>Provincia registrazione</t>
@@ -505,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -873,7 +888,7 @@
         <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>34</v>
@@ -896,7 +911,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>34</v>
@@ -942,7 +957,7 @@
         <v>50</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>34</v>
@@ -965,7 +980,7 @@
         <v>52</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>34</v>
@@ -1057,7 +1072,7 @@
         <v>60</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>34</v>
@@ -1080,7 +1095,7 @@
         <v>62</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>34</v>
@@ -1103,7 +1118,7 @@
         <v>64</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>34</v>
@@ -1126,7 +1141,7 @@
         <v>66</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>34</v>
@@ -1402,7 +1417,7 @@
         <v>90</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>34</v>
@@ -1425,7 +1440,7 @@
         <v>92</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>34</v>
@@ -1465,19 +1480,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1488,19 +1503,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1511,16 +1526,16 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
@@ -1534,7 +1549,7 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>104</v>
@@ -1543,7 +1558,7 @@
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>105</v>
@@ -1557,7 +1572,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>106</v>
@@ -1566,7 +1581,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>107</v>
@@ -1580,16 +1595,16 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>109</v>
@@ -1603,16 +1618,16 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>111</v>
@@ -1626,7 +1641,7 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>112</v>
@@ -1635,7 +1650,7 @@
         <v>33</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>113</v>
@@ -1649,7 +1664,7 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>114</v>
@@ -1658,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>115</v>
@@ -1672,19 +1687,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1695,7 +1710,7 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>118</v>
@@ -1704,10 +1719,10 @@
         <v>33</v>
       </c>
       <c r="D52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1718,19 +1733,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1741,16 +1756,16 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>124</v>
@@ -1759,297 +1774,297 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>17</v>
+        <v>133</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>138</v>
+        <v>20</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>144</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>101</v>
+        <v>147</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>103</v>
@@ -2063,19 +2078,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2086,19 +2101,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2109,7 +2124,7 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>112</v>
@@ -2118,7 +2133,7 @@
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>113</v>
@@ -2132,7 +2147,7 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>114</v>
@@ -2141,7 +2156,7 @@
         <v>33</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>115</v>
@@ -2150,6 +2165,52 @@
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
         <v>18</v>
       </c>
     </row>
